--- a/xlsx/剛果共和國_intext.xlsx
+++ b/xlsx/剛果共和國_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="516">
   <si>
     <t>剛果共和國</t>
   </si>
@@ -29,7 +29,7 @@
     <t>刚果</t>
   </si>
   <si>
-    <t>政策_政策_美國_剛果共和國</t>
+    <t>体育运动_体育运动_南非_剛果共和國</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -726,6 +726,18 @@
   </si>
   <si>
     <t>新华网</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/OpenStreetMap</t>
+  </si>
+  <si>
+    <t>OpenStreetMap</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AF%BC%E6%B8%B8</t>
+  </si>
+  <si>
+    <t>维基导游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Africa</t>
@@ -1899,7 +1911,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I265"/>
+  <dimension ref="A1:I267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1953,7 +1965,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
@@ -2939,7 +2951,7 @@
         <v>66</v>
       </c>
       <c r="G36" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H36" t="s">
         <v>4</v>
@@ -5491,7 +5503,7 @@
         <v>238</v>
       </c>
       <c r="G124" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H124" t="s">
         <v>4</v>
@@ -5520,7 +5532,7 @@
         <v>240</v>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H125" t="s">
         <v>4</v>
@@ -5549,7 +5561,7 @@
         <v>242</v>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H126" t="s">
         <v>4</v>
@@ -5578,7 +5590,7 @@
         <v>244</v>
       </c>
       <c r="G127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H127" t="s">
         <v>4</v>
@@ -5636,7 +5648,7 @@
         <v>248</v>
       </c>
       <c r="G129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H129" t="s">
         <v>4</v>
@@ -5665,7 +5677,7 @@
         <v>250</v>
       </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H130" t="s">
         <v>4</v>
@@ -5694,7 +5706,7 @@
         <v>252</v>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H131" t="s">
         <v>4</v>
@@ -5723,7 +5735,7 @@
         <v>254</v>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H132" t="s">
         <v>4</v>
@@ -5752,7 +5764,7 @@
         <v>256</v>
       </c>
       <c r="G133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H133" t="s">
         <v>4</v>
@@ -5781,7 +5793,7 @@
         <v>258</v>
       </c>
       <c r="G134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H134" t="s">
         <v>4</v>
@@ -5839,7 +5851,7 @@
         <v>262</v>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H136" t="s">
         <v>4</v>
@@ -5897,7 +5909,7 @@
         <v>266</v>
       </c>
       <c r="G138" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H138" t="s">
         <v>4</v>
@@ -5955,7 +5967,7 @@
         <v>270</v>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H140" t="s">
         <v>4</v>
@@ -5984,7 +5996,7 @@
         <v>272</v>
       </c>
       <c r="G141" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H141" t="s">
         <v>4</v>
@@ -6013,7 +6025,7 @@
         <v>274</v>
       </c>
       <c r="G142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H142" t="s">
         <v>4</v>
@@ -6042,7 +6054,7 @@
         <v>276</v>
       </c>
       <c r="G143" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H143" t="s">
         <v>4</v>
@@ -6071,7 +6083,7 @@
         <v>278</v>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H144" t="s">
         <v>4</v>
@@ -6187,7 +6199,7 @@
         <v>286</v>
       </c>
       <c r="G148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H148" t="s">
         <v>4</v>
@@ -6216,7 +6228,7 @@
         <v>288</v>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H149" t="s">
         <v>4</v>
@@ -6268,10 +6280,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>5</v>
+        <v>291</v>
       </c>
       <c r="F151" t="s">
-        <v>6</v>
+        <v>292</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6297,10 +6309,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F152" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -6326,10 +6338,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>293</v>
+        <v>5</v>
       </c>
       <c r="F153" t="s">
-        <v>294</v>
+        <v>6</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6361,7 +6373,7 @@
         <v>296</v>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H154" t="s">
         <v>4</v>
@@ -6448,7 +6460,7 @@
         <v>302</v>
       </c>
       <c r="G157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H157" t="s">
         <v>4</v>
@@ -6564,7 +6576,7 @@
         <v>310</v>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H161" t="s">
         <v>4</v>
@@ -6709,7 +6721,7 @@
         <v>320</v>
       </c>
       <c r="G166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H166" t="s">
         <v>4</v>
@@ -6738,7 +6750,7 @@
         <v>322</v>
       </c>
       <c r="G167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H167" t="s">
         <v>4</v>
@@ -6767,7 +6779,7 @@
         <v>324</v>
       </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H168" t="s">
         <v>4</v>
@@ -6796,7 +6808,7 @@
         <v>326</v>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H169" t="s">
         <v>4</v>
@@ -6854,7 +6866,7 @@
         <v>330</v>
       </c>
       <c r="G171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H171" t="s">
         <v>4</v>
@@ -6883,7 +6895,7 @@
         <v>332</v>
       </c>
       <c r="G172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H172" t="s">
         <v>4</v>
@@ -6941,7 +6953,7 @@
         <v>336</v>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H174" t="s">
         <v>4</v>
@@ -6970,7 +6982,7 @@
         <v>338</v>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H175" t="s">
         <v>4</v>
@@ -7028,7 +7040,7 @@
         <v>342</v>
       </c>
       <c r="G177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H177" t="s">
         <v>4</v>
@@ -7086,7 +7098,7 @@
         <v>346</v>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H179" t="s">
         <v>4</v>
@@ -7724,7 +7736,7 @@
         <v>390</v>
       </c>
       <c r="G201" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H201" t="s">
         <v>4</v>
@@ -7782,7 +7794,7 @@
         <v>394</v>
       </c>
       <c r="G203" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H203" t="s">
         <v>4</v>
@@ -7840,7 +7852,7 @@
         <v>398</v>
       </c>
       <c r="G205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H205" t="s">
         <v>4</v>
@@ -7898,7 +7910,7 @@
         <v>402</v>
       </c>
       <c r="G207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H207" t="s">
         <v>4</v>
@@ -7979,10 +7991,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>297</v>
+        <v>407</v>
       </c>
       <c r="F210" t="s">
-        <v>298</v>
+        <v>408</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8008,10 +8020,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F211" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8037,13 +8049,13 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>409</v>
+        <v>301</v>
       </c>
       <c r="F212" t="s">
-        <v>410</v>
+        <v>302</v>
       </c>
       <c r="G212" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H212" t="s">
         <v>4</v>
@@ -8095,13 +8107,13 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>265</v>
+        <v>413</v>
       </c>
       <c r="F214" t="s">
-        <v>266</v>
+        <v>414</v>
       </c>
       <c r="G214" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H214" t="s">
         <v>4</v>
@@ -8124,10 +8136,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F215" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8153,13 +8165,13 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>415</v>
+        <v>269</v>
       </c>
       <c r="F216" t="s">
-        <v>416</v>
+        <v>270</v>
       </c>
       <c r="G216" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H216" t="s">
         <v>4</v>
@@ -8472,10 +8484,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>251</v>
+        <v>437</v>
       </c>
       <c r="F227" t="s">
-        <v>252</v>
+        <v>438</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8501,10 +8513,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F228" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8530,10 +8542,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>439</v>
+        <v>255</v>
       </c>
       <c r="F229" t="s">
-        <v>440</v>
+        <v>256</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9551,7 +9563,7 @@
         <v>510</v>
       </c>
       <c r="G264" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H264" t="s">
         <v>4</v>
@@ -9574,10 +9586,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F265" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9586,6 +9598,64 @@
         <v>4</v>
       </c>
       <c r="I265" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="s">
+        <v>0</v>
+      </c>
+      <c r="C266" t="s">
+        <v>1</v>
+      </c>
+      <c r="D266" t="n">
+        <v>265</v>
+      </c>
+      <c r="E266" t="s">
+        <v>513</v>
+      </c>
+      <c r="F266" t="s">
+        <v>514</v>
+      </c>
+      <c r="G266" t="n">
+        <v>8</v>
+      </c>
+      <c r="H266" t="s">
+        <v>4</v>
+      </c>
+      <c r="I266" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="s">
+        <v>0</v>
+      </c>
+      <c r="C267" t="s">
+        <v>1</v>
+      </c>
+      <c r="D267" t="n">
+        <v>266</v>
+      </c>
+      <c r="E267" t="s">
+        <v>513</v>
+      </c>
+      <c r="F267" t="s">
+        <v>515</v>
+      </c>
+      <c r="G267" t="n">
+        <v>1</v>
+      </c>
+      <c r="H267" t="s">
+        <v>4</v>
+      </c>
+      <c r="I267" t="n">
         <v>3</v>
       </c>
     </row>
